--- a/va_facility_data_2025-02-20/Fredericksburg 2 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fredericksburg%202%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fredericksburg 2 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fredericksburg%202%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb96ff860f599407baa6b93bad8013af6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re9ad12a997c849eea2f5ba0eceeebb35"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R65a6abcde9ef43d8830ce7f7dc7ff22d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6bf5d300f1ca4baabb08a8b699643701"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R501a675bc912430f88666444d0cf1a15"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc5ffd1f1f5ba4e97ab5ec226b7cfaa7a"/>
   </x:sheets>
 </x:workbook>
 </file>
